--- a/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.76847479859203</v>
+        <v>-26.16366640804753</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.18535308844797</v>
+        <v>-22.83735910985199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.77149016743378</v>
+        <v>-20.31070689428903</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6852156890607255</v>
+        <v>-0.6825488286995944</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6313090644935548</v>
+        <v>-0.624807490248648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6161487437209899</v>
+        <v>-0.6209483258990752</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-19.4068093875898</v>
+        <v>-19.45066579865895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-15.92778430746327</v>
+        <v>-15.65781276243655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-11.73184271088528</v>
+        <v>-12.00811330824728</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.563652233066717</v>
+        <v>-0.5662120567389584</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.4934286219453917</v>
+        <v>-0.4853814572229797</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.4360910490102026</v>
+        <v>-0.4356995134558055</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-17.1473314991687</v>
+        <v>-17.35362562260563</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.70336727296565</v>
+        <v>-10.52463334217806</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.961517163588921</v>
+        <v>-9.063949160099218</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3454370020927275</v>
+        <v>-0.3477967628254706</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2394600950631666</v>
+        <v>-0.2343840343833823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2192246303375514</v>
+        <v>-0.2218813977668768</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-10.47278473924604</v>
+        <v>-10.33947364210435</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-4.146491709129792</v>
+        <v>-3.878292808134853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.876661224645956</v>
+        <v>-3.018750454476353</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2252226656242121</v>
+        <v>-0.2206838334774737</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09865951958886274</v>
+        <v>-0.09145638911663129</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07635827447737999</v>
+        <v>-0.07822623018694595</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.55452133058827</v>
+        <v>-11.49698476995007</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.853651294465422</v>
+        <v>-9.699948946102891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.472228518009295</v>
+        <v>-8.343409867354861</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3026111611446933</v>
+        <v>-0.3077438379307316</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2680126514949428</v>
+        <v>-0.2619681657980713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2990539726071768</v>
+        <v>-0.2975740050912355</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.002460304248246456</v>
+        <v>-0.2594891200017264</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.322710143909434</v>
+        <v>3.088139113178754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.369785986139335</v>
+        <v>2.042740868510392</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.0008757208645429962</v>
+        <v>-0.007750855248886831</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1056426538547382</v>
+        <v>0.1042014476596858</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1022735358612002</v>
+        <v>0.09774582121601494</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.02802469529953</v>
+        <v>-18.95810947138029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.38147792371026</v>
+        <v>-14.48256557886019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.07419112544414</v>
+        <v>-11.0240764651524</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4374454969952593</v>
+        <v>-0.4376132489729002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3523554446367728</v>
+        <v>-0.3550503606833194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3053837437100993</v>
+        <v>-0.3043599221212295</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-14.47981802580964</v>
+        <v>-14.20459773446874</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-9.818369632974511</v>
+        <v>-9.87260638145214</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-6.54337430432787</v>
+        <v>-6.691518373189795</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3524743790524191</v>
+        <v>-0.3484231314832267</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2543639227520165</v>
+        <v>-0.2568627376678876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1940377922536144</v>
+        <v>-0.1990988147209544</v>
       </c>
     </row>
     <row r="16">
